--- a/Speedup.xlsx
+++ b/Speedup.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuajones/Documents/Mestrado/CAD/Projeto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Documents\GitHub\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E49D665-A52F-C144-A0D5-49C1E676076B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C493A7E7-835F-413B-B3F5-79A923F25267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{E532514A-05D9-E947-9BF5-BF99817C02EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E532514A-05D9-E947-9BF5-BF99817C02EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -66,13 +66,82 @@
   </si>
   <si>
     <t>Speedup</t>
+  </si>
+  <si>
+    <t>Seq</t>
+  </si>
+  <si>
+    <t>100x20</t>
+  </si>
+  <si>
+    <t>Makespan</t>
+  </si>
+  <si>
+    <t>0,000094+0,000085+0,000091+0,000092+0,000091+0,000123+0,000100+0,000095+0,000098+0,000094</t>
+  </si>
+  <si>
+    <t>Time Sum</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>3x3</t>
+  </si>
+  <si>
+    <t>0,000005+0,000010+0,000008+0,000009+0,000009+0,000008+0,000006+0,000009+0,000008+0,000009</t>
+  </si>
+  <si>
+    <t>3 threads</t>
+  </si>
+  <si>
+    <t>0.112003</t>
+  </si>
+  <si>
+    <t>1 thread</t>
+  </si>
+  <si>
+    <t>0.103026</t>
+  </si>
+  <si>
+    <t>2 thread</t>
+  </si>
+  <si>
+    <t>4 thread</t>
+  </si>
+  <si>
+    <t>8 thread</t>
+  </si>
+  <si>
+    <t>16 thread</t>
+  </si>
+  <si>
+    <t>32 thread</t>
+  </si>
+  <si>
+    <t>0.242531</t>
+  </si>
+  <si>
+    <t>0.104014</t>
+  </si>
+  <si>
+    <t>0.212071</t>
+  </si>
+  <si>
+    <t>0.189170</t>
+  </si>
+  <si>
+    <t>0.104677</t>
+  </si>
+  <si>
+    <t>0.105906</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,6 +154,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -290,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -328,6 +405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2477,24 +2555,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F319C9-AECA-FC4B-8A66-C5512147C909}">
-  <dimension ref="C3:J6"/>
+  <dimension ref="B3:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="161" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="161" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2520,7 +2598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
@@ -2546,7 +2624,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
@@ -2571,6 +2649,195 @@
       <c r="J6" s="12">
         <v>0.64900000000000002</v>
       </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>79512</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <v>9.6299999999999996E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <v>7.7999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Speedup.xlsx
+++ b/Speedup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Documents\GitHub\Projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuajones/Documents/Mestrado/CAD/Projeto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C493A7E7-835F-413B-B3F5-79A923F25267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63D8C4A-EEB4-BC4B-AB3A-5981A9B71C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E532514A-05D9-E947-9BF5-BF99817C02EC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17160" xr2:uid="{E532514A-05D9-E947-9BF5-BF99817C02EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -135,6 +135,27 @@
   </si>
   <si>
     <t>0.105906</t>
+  </si>
+  <si>
+    <t>Calculos Speedup</t>
+  </si>
+  <si>
+    <t>PC1 = 0,0000963 / 0,242531 = 0,000397063</t>
+  </si>
+  <si>
+    <t>PC2 = 0,0000963 / 0,104014 = 0,000925837</t>
+  </si>
+  <si>
+    <t>PC4 = 0,0000963 / 0,212071 = 0,000454093</t>
+  </si>
+  <si>
+    <t>PC8 = 0,0000963 / 0,18917 = 0,00050906591</t>
+  </si>
+  <si>
+    <t>PC16 = 0,0000963 / 0,104677 = 0,00091997286</t>
+  </si>
+  <si>
+    <t>PC32 = 0,0000963 / 0,105906 = 0,00090929692</t>
   </si>
 </sst>
 </file>
@@ -165,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,8 +205,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -319,7 +346,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -337,7 +364,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -349,10 +376,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -367,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -376,9 +429,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -406,6 +456,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,25 +592,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>9.6299999999999996E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>0.242531</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>0.104014</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>140</c:v>
+                  <c:v>0.21207100000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>0.18917</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>124</c:v>
+                  <c:v>0.10467700000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>154</c:v>
+                  <c:v>0.105906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -686,7 +743,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -851,22 +908,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83</c:v>
+                  <c:v>3.9706263999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90900000000000003</c:v>
+                  <c:v>9.2583689999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71399999999999997</c:v>
+                  <c:v>4.5409319999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>5.0906591E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80600000000000005</c:v>
+                  <c:v>9.1997286000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.64900000000000002</c:v>
+                  <c:v>9.0929691999999999E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2166,15 +2223,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>806173</xdr:colOff>
+      <xdr:colOff>814061</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>67996</xdr:rowOff>
+      <xdr:rowOff>4890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>424384</xdr:colOff>
+      <xdr:colOff>432272</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>144985</xdr:rowOff>
+      <xdr:rowOff>81879</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2555,102 +2612,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F319C9-AECA-FC4B-8A66-C5512147C909}">
-  <dimension ref="B3:J71"/>
+  <dimension ref="B3:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="161" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="161" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25:L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="10" width="9.1640625" customWidth="1"/>
+    <col min="12" max="12" width="40.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
+    <row r="5" spans="3:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6">
-        <v>100</v>
-      </c>
-      <c r="E5" s="7">
-        <v>120</v>
-      </c>
-      <c r="F5" s="7">
-        <v>110</v>
-      </c>
-      <c r="G5" s="7">
-        <v>140</v>
-      </c>
-      <c r="H5" s="7">
-        <v>200</v>
-      </c>
-      <c r="I5" s="7">
-        <v>124</v>
-      </c>
-      <c r="J5" s="8">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="9" t="s">
+      <c r="D5" s="5">
+        <v>9.6299999999999996E-5</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.242531</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.104014</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.21207100000000001</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.18917</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.10467700000000001</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.105906</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="11">
-        <v>0.83</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="11">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0.64900000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="10">
+        <v>3.9706263999999999E-4</v>
+      </c>
+      <c r="F6" s="10">
+        <v>9.2583689999999996E-4</v>
+      </c>
+      <c r="G6" s="10">
+        <v>4.5409319999999999E-4</v>
+      </c>
+      <c r="H6" s="10">
+        <v>5.0906591E-4</v>
+      </c>
+      <c r="I6" s="10">
+        <v>9.1997286000000005E-4</v>
+      </c>
+      <c r="J6" s="11">
+        <v>9.0929691999999999E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="11:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="11:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="13"/>
+      <c r="L26" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="11:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="11:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="11:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="11:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="11:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L31" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -2658,7 +2754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>12</v>
       </c>
@@ -2666,7 +2762,7 @@
         <v>79512</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>14</v>
       </c>
@@ -2674,7 +2770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>15</v>
       </c>
@@ -2682,7 +2778,7 @@
         <v>9.6299999999999996E-5</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>16</v>
       </c>
@@ -2690,7 +2786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>12</v>
       </c>
@@ -2698,7 +2794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>14</v>
       </c>
@@ -2706,7 +2802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>15</v>
       </c>
@@ -2714,7 +2810,7 @@
         <v>7.7999999999999999E-6</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>16</v>
       </c>
@@ -2722,7 +2818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>12</v>
       </c>
@@ -2730,12 +2826,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>15</v>
       </c>
@@ -2743,7 +2839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>16</v>
       </c>
@@ -2751,7 +2847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>12</v>
       </c>
@@ -2759,7 +2855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>15</v>
       </c>
@@ -2767,12 +2863,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>15</v>
       </c>
@@ -2783,7 +2879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>15</v>
       </c>
@@ -2794,7 +2890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>15</v>
       </c>
@@ -2805,7 +2901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>15</v>
       </c>
@@ -2816,7 +2912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>15</v>
       </c>
@@ -2827,7 +2923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>15</v>
       </c>
@@ -2837,7 +2933,7 @@
       <c r="D71" t="s">
         <v>26</v>
       </c>
-      <c r="E71" s="13"/>
+      <c r="E71" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
